--- a/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 10,48</t>
+          <t>-31,54; 12,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-50,13; -6,16</t>
+          <t>-49,69; -7,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 28,93</t>
+          <t>-64,31; 35,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-87,69; 7,03</t>
+          <t>-92,28; -13,79</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -3,48</t>
+          <t>-20,91; -2,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; -6,87</t>
+          <t>-22,58; -6,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,12; -7,99</t>
+          <t>-49,7; -6,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,48; -20,39</t>
+          <t>-57,11; -17,11</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -5,67</t>
+          <t>-18,68; -6,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 0,73</t>
+          <t>-12,28; 0,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-51,13; -17,73</t>
+          <t>-50,53; -18,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 2,41</t>
+          <t>-32,64; 1,76</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,73; -0,79</t>
+          <t>-16,04; -0,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 0,19</t>
+          <t>-14,24; -0,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,29; -1,82</t>
+          <t>-41,65; -1,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 0,87</t>
+          <t>-36,48; -0,41</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 2,78</t>
+          <t>-9,64; 3,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 0,3</t>
+          <t>-11,91; 0,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 8,77</t>
+          <t>-26,29; 9,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 0,8</t>
+          <t>-30,93; 1,72</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,3</t>
+          <t>-12,37; -5,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -4,75</t>
+          <t>-11,5; -4,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,39</t>
+          <t>-33,71; -14,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -13,55</t>
+          <t>-30,82; -13,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 12,43</t>
+          <t>-32,93; 6,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-49,69; -7,77</t>
+          <t>-50,29; -8,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-64,31; 35,22</t>
+          <t>-65,43; 17,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-92,28; -13,79</t>
+          <t>-92,13; -13,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -2,48</t>
+          <t>-20,86; -3,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -6,17</t>
+          <t>-22,71; -6,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,7; -6,59</t>
+          <t>-49,89; -9,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,11; -17,11</t>
+          <t>-57,01; -18,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,68; -6,08</t>
+          <t>-18,41; -5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 0,52</t>
+          <t>-11,33; 0,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -18,73</t>
+          <t>-50,32; -17,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 1,76</t>
+          <t>-30,54; 2,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -0,54</t>
+          <t>-16,98; -0,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -0,03</t>
+          <t>-14,42; -0,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,65; -1,82</t>
+          <t>-43,2; -2,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,48; -0,41</t>
+          <t>-35,67; 0,18</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 3,01</t>
+          <t>-9,96; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 0,67</t>
+          <t>-12,35; -0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 9,27</t>
+          <t>-27,11; 7,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 1,72</t>
+          <t>-31,62; 0,28</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -5,06</t>
+          <t>-12,23; -5,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -4,82</t>
+          <t>-11,68; -4,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,71; -14,65</t>
+          <t>-33,18; -15,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,82; -13,85</t>
+          <t>-31,22; -14,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 6,81</t>
+          <t>-33,17; 10,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-50,29; -8,36</t>
+          <t>-50,13; -6,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 17,96</t>
+          <t>-65,72; 28,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-92,13; -13,94</t>
+          <t>-87,69; 7,03</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,86; -3,56</t>
+          <t>-21,66; -3,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -6,31</t>
+          <t>-22,23; -6,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,89; -9,08</t>
+          <t>-50,12; -7,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,01; -18,15</t>
+          <t>-56,48; -20,39</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,41; -5,54</t>
+          <t>-18,45; -5,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 0,58</t>
+          <t>-11,68; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,32; -17,67</t>
+          <t>-51,13; -17,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 2,51</t>
+          <t>-31,54; 2,41</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,98; -0,97</t>
+          <t>-16,73; -0,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -0,11</t>
+          <t>-15,11; 0,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,2; -2,35</t>
+          <t>-43,29; -1,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 0,18</t>
+          <t>-38,93; 0,87</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 2,35</t>
+          <t>-9,79; 2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -0,0</t>
+          <t>-12,27; 0,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 7,53</t>
+          <t>-26,91; 8,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 0,28</t>
+          <t>-31,97; 0,8</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -5,28</t>
+          <t>-12,45; -5,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -4,78</t>
+          <t>-11,8; -4,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -15,57</t>
+          <t>-33,22; -15,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,22; -14,0</t>
+          <t>-31,12; -13,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,12 +521,16 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -567,11 +602,15 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,38</t>
+          <t>-12,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-32,68</t>
+          <t>-17,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-30,44%</t>
+          <t>-37,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-64,56%</t>
+          <t>-20,31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-30,68%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-44,31%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-57,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-53,37%</t>
         </is>
       </c>
     </row>
@@ -609,29 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 10,48</t>
+          <t>-20,41; -3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-50,13; -6,16</t>
+          <t>-24,27; -8,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 28,93</t>
+          <t>-62,54; -6,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-87,69; 7,03</t>
+          <t>-28,39; -12,54</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-47,82; -10,09</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-58,31; -24,41</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-89,35; -10,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-67,73; -34,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,87</t>
+          <t>-12,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,56</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-30,29%</t>
+          <t>-13,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-39,22%</t>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-35,73%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-17,06%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-24,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -669,29 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -3,48</t>
+          <t>-18,45; -5,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; -6,87</t>
+          <t>-11,68; 0,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,12; -7,99</t>
+          <t>-38,88; 11,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,48; -20,39</t>
+          <t>-11,32; 17,52</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-51,13; -17,73</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-31,54; 2,41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-60,56; 22,54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-35,41; 210,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,31</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-35,73%</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,06%</t>
+          <t>-4,1</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-24,42%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-20,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-12,89%</t>
         </is>
       </c>
     </row>
@@ -729,29 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -5,67</t>
+          <t>-16,73; -0,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 0,73</t>
+          <t>-15,11; 0,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-51,13; -17,73</t>
+          <t>-24,09; 43,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 2,41</t>
+          <t>-12,06; 4,54</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-43,29; -1,82</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-38,93; 0,87</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-42,27; 125,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-33,87; 17,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-24,42%</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,23%</t>
+          <t>-9,54</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-15,96%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36,55%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-26,08%</t>
         </is>
       </c>
     </row>
@@ -789,29 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,73; -0,79</t>
+          <t>-9,79; 2,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 0,19</t>
+          <t>-12,27; 0,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,29; -1,82</t>
+          <t>-12,6; 36,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 0,87</t>
+          <t>-15,68; -3,31</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-26,91; 8,77</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-31,97; 0,8</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,22; 120,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-39,89; -9,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,22 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,96%</t>
+          <t>-5,09</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-24,61%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-22,61%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-17,4%</t>
         </is>
       </c>
     </row>
@@ -849,103 +1068,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 2,78</t>
+          <t>-12,45; -5,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 0,3</t>
+          <t>-11,8; -4,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 8,77</t>
+          <t>-17,98; 7,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 0,8</t>
+          <t>-11,26; 6,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-33,22; -15,39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-31,12; -13,55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-34,42; 16,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-32,72; 33,43</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-8,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-24,61%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-22,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,45; -5,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; -4,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-33,22; -15,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-31,12; -13,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-37,39</t>
+          <t>-16,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-57,8%</t>
+          <t>-38,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,41; -3,84</t>
+          <t>-20,58; -3,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,27; -8,69</t>
+          <t>-25,04; -9,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-62,54; -6,38</t>
+          <t>-23,98; -7,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,39; -12,54</t>
+          <t>-27,94; -12,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,82; -10,09</t>
+          <t>-48,43; -9,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,31; -24,41</t>
+          <t>-60,05; -26,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-89,35; -10,51</t>
+          <t>-53,51; -20,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -34,94</t>
+          <t>-67,62; -36,98</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,78</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,35%</t>
+          <t>-24,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -5,67</t>
+          <t>-18,41; -5,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 0,73</t>
+          <t>-12,72; 0,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 11,18</t>
+          <t>-15,43; -2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 17,52</t>
+          <t>-11,32; 18,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,13; -17,73</t>
+          <t>-50,38; -17,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 2,41</t>
+          <t>-35,23; -0,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,56; 22,54</t>
+          <t>-38,16; -6,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 210,97</t>
+          <t>-35,63; 245,3</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,42</t>
+          <t>-8,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>-28,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,73; -0,79</t>
+          <t>-18,21; -1,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 0,19</t>
+          <t>-14,85; -0,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 43,24</t>
+          <t>-15,62; -2,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 4,54</t>
+          <t>-13,44; 3,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,29; -1,82</t>
+          <t>-46,67; -3,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 0,87</t>
+          <t>-36,97; -0,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 125,9</t>
+          <t>-45,07; -8,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 17,45</t>
+          <t>-36,42; 13,43</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 2,78</t>
+          <t>-10,4; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 0,3</t>
+          <t>-12,19; 0,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 36,74</t>
+          <t>-14,03; -0,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -3,31</t>
+          <t>-15,87; -2,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 8,77</t>
+          <t>-27,6; 8,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 0,8</t>
+          <t>-31,5; 1,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 120,37</t>
+          <t>-38,63; -1,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,89; -9,85</t>
+          <t>-39,82; -8,77</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-28,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,3</t>
+          <t>-12,2; -5,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -4,75</t>
+          <t>-11,64; -4,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 7,42</t>
+          <t>-13,68; -6,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 6,87</t>
+          <t>-11,57; 6,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,39</t>
+          <t>-33,14; -15,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -13,55</t>
+          <t>-30,95; -13,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 16,23</t>
+          <t>-36,15; -19,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 33,43</t>
+          <t>-33,07; 33,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,31</t>
+          <t>-30,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,68%</t>
+          <t>-44,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-44,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>-38,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-53,37%</t>
         </is>
       </c>
     </row>
@@ -683,27 +657,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -12,75</t>
+          <t>-48,43; -9,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,43; -9,87</t>
+          <t>-60,05; -26,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,05; -26,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
           <t>-53,51; -20,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-67,62; -36,98</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-35,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,73%</t>
+          <t>-17,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,06%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>-24,21%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -783,27 +737,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 18,56</t>
+          <t>-50,38; -17,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,38; -17,97</t>
+          <t>-35,23; -0,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,23; -0,2</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
           <t>-38,16; -6,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-35,63; 245,3</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-24,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,42%</t>
+          <t>-20,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,23%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>-28,15%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-12,89%</t>
         </is>
       </c>
     </row>
@@ -883,27 +817,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 3,7</t>
+          <t>-46,67; -3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,67; -3,47</t>
+          <t>-36,97; -0,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,97; -0,97</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
           <t>-45,07; -8,24</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-36,42; 13,43</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>-10,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>-15,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,96%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-22,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-26,08%</t>
         </is>
       </c>
     </row>
@@ -983,27 +897,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -2,95</t>
+          <t>-27,6; 8,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 8,85</t>
+          <t>-31,5; 1,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 1,22</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
           <t>-38,63; -1,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-39,82; -8,77</t>
         </is>
       </c>
     </row>
@@ -1035,27 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-22,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-22,61%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
           <t>-28,33%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-17,4%</t>
         </is>
       </c>
     </row>
@@ -1083,27 +977,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 6,3</t>
+          <t>-33,14; -15,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -15,1</t>
+          <t>-30,95; -13,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,95; -13,36</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
           <t>-36,15; -19,5</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-33,07; 33,2</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1000,12 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
